--- a/results/mp/tinybert/home-spam/confidence/42/stop-words-topk-0.15/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/42/stop-words-topk-0.15/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="57">
   <si>
     <t>anchor score</t>
   </si>
@@ -58,18 +58,24 @@
     <t>love</t>
   </si>
   <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>pleased</t>
   </si>
   <si>
-    <t>awesome</t>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>thank</t>
   </si>
   <si>
     <t>beautiful</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>perfect</t>
   </si>
   <si>
@@ -79,69 +85,66 @@
     <t>loved</t>
   </si>
   <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>cakes</t>
+  </si>
+  <si>
     <t>christmas</t>
   </si>
   <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>husband</t>
+    <t>cake</t>
   </si>
   <si>
     <t>wife</t>
   </si>
   <si>
-    <t>cakes</t>
+    <t>sturdy</t>
   </si>
   <si>
     <t>cooke</t>
   </si>
   <si>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
     <t>perfectly</t>
   </si>
   <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>cheese</t>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>years</t>
   </si>
   <si>
     <t>bread</t>
   </si>
   <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>pie</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>years</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>nice</t>
+    <t>easy</t>
   </si>
   <si>
     <t>tea</t>
   </si>
   <si>
-    <t>easy</t>
-  </si>
-  <si>
     <t>kitchen</t>
   </si>
   <si>
@@ -157,31 +160,25 @@
     <t>works</t>
   </si>
   <si>
-    <t>hot</t>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>little</t>
   </si>
   <si>
     <t>coffee</t>
   </si>
   <si>
-    <t>little</t>
-  </si>
-  <si>
     <t>bought</t>
   </si>
   <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>quality</t>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>one</t>
   </si>
   <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>one</t>
   </si>
   <si>
     <t>use</t>
@@ -545,7 +542,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q49"/>
+  <dimension ref="A1:Q48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -556,7 +553,7 @@
         <v>9</v>
       </c>
       <c r="J1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -614,13 +611,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.2713178294573643</v>
+        <v>0.2403100775193799</v>
       </c>
       <c r="C3">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D3">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -632,19 +629,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K3">
-        <v>0.956989247311828</v>
+        <v>0.946236559139785</v>
       </c>
       <c r="L3">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M3">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -656,7 +653,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -716,13 +713,13 @@
         <v>13</v>
       </c>
       <c r="K6">
-        <v>0.8421052631578947</v>
+        <v>0.8513931888544891</v>
       </c>
       <c r="L6">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="M6">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -734,7 +731,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -742,13 +739,13 @@
         <v>14</v>
       </c>
       <c r="K7">
-        <v>0.7402597402597403</v>
+        <v>0.8478260869565217</v>
       </c>
       <c r="L7">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="M7">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -760,7 +757,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -768,13 +765,13 @@
         <v>15</v>
       </c>
       <c r="K8">
-        <v>0.7173913043478261</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L8">
-        <v>33</v>
+        <v>168</v>
       </c>
       <c r="M8">
-        <v>33</v>
+        <v>168</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -786,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>13</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -794,13 +791,13 @@
         <v>16</v>
       </c>
       <c r="K9">
-        <v>0.7045454545454546</v>
+        <v>0.7012987012987013</v>
       </c>
       <c r="L9">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="M9">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -812,7 +809,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -820,13 +817,13 @@
         <v>17</v>
       </c>
       <c r="K10">
-        <v>0.6753246753246753</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="L10">
-        <v>156</v>
+        <v>39</v>
       </c>
       <c r="M10">
-        <v>156</v>
+        <v>39</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -838,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>75</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -846,13 +843,13 @@
         <v>18</v>
       </c>
       <c r="K11">
-        <v>0.6745762711864407</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L11">
-        <v>199</v>
+        <v>30</v>
       </c>
       <c r="M11">
-        <v>199</v>
+        <v>30</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -864,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>96</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -872,13 +869,13 @@
         <v>19</v>
       </c>
       <c r="K12">
-        <v>0.6575342465753424</v>
+        <v>0.6590909090909091</v>
       </c>
       <c r="L12">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="M12">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -890,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -898,13 +895,13 @@
         <v>20</v>
       </c>
       <c r="K13">
-        <v>0.6338028169014085</v>
+        <v>0.6542372881355932</v>
       </c>
       <c r="L13">
-        <v>45</v>
+        <v>193</v>
       </c>
       <c r="M13">
-        <v>45</v>
+        <v>193</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -916,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>26</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -924,13 +921,13 @@
         <v>21</v>
       </c>
       <c r="K14">
-        <v>0.6252006420545746</v>
+        <v>0.6438356164383562</v>
       </c>
       <c r="L14">
-        <v>779</v>
+        <v>47</v>
       </c>
       <c r="M14">
-        <v>779</v>
+        <v>47</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -942,7 +939,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>467</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -950,13 +947,13 @@
         <v>22</v>
       </c>
       <c r="K15">
-        <v>0.6029411764705882</v>
+        <v>0.6338028169014085</v>
       </c>
       <c r="L15">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M15">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -968,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -976,13 +973,13 @@
         <v>23</v>
       </c>
       <c r="K16">
-        <v>0.6</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="L16">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M16">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -994,7 +991,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1002,13 +999,13 @@
         <v>24</v>
       </c>
       <c r="K17">
-        <v>0.5942857142857143</v>
+        <v>0.6228571428571429</v>
       </c>
       <c r="L17">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="M17">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1020,7 +1017,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1028,13 +1025,13 @@
         <v>25</v>
       </c>
       <c r="K18">
-        <v>0.5614035087719298</v>
+        <v>0.6211878009630819</v>
       </c>
       <c r="L18">
-        <v>32</v>
+        <v>774</v>
       </c>
       <c r="M18">
-        <v>32</v>
+        <v>774</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1046,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>25</v>
+        <v>472</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1054,13 +1051,13 @@
         <v>26</v>
       </c>
       <c r="K19">
-        <v>0.5555555555555556</v>
+        <v>0.6</v>
       </c>
       <c r="L19">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M19">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1072,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1080,13 +1077,13 @@
         <v>27</v>
       </c>
       <c r="K20">
-        <v>0.546875</v>
+        <v>0.515625</v>
       </c>
       <c r="L20">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M20">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1098,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1106,13 +1103,13 @@
         <v>28</v>
       </c>
       <c r="K21">
-        <v>0.5384615384615384</v>
+        <v>0.5147058823529411</v>
       </c>
       <c r="L21">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="M21">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1124,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>54</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1132,13 +1129,13 @@
         <v>29</v>
       </c>
       <c r="K22">
-        <v>0.5</v>
+        <v>0.5096153846153846</v>
       </c>
       <c r="L22">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="M22">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1150,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>38</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1158,13 +1155,13 @@
         <v>30</v>
       </c>
       <c r="K23">
-        <v>0.4850299401197605</v>
+        <v>0.5</v>
       </c>
       <c r="L23">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="M23">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1176,7 +1173,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>86</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1184,13 +1181,13 @@
         <v>31</v>
       </c>
       <c r="K24">
-        <v>0.4711538461538461</v>
+        <v>0.4730538922155689</v>
       </c>
       <c r="L24">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="M24">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1202,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>55</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1210,13 +1207,13 @@
         <v>32</v>
       </c>
       <c r="K25">
-        <v>0.4698795180722892</v>
+        <v>0.4700854700854701</v>
       </c>
       <c r="L25">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="M25">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1228,7 +1225,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1236,13 +1233,13 @@
         <v>33</v>
       </c>
       <c r="K26">
-        <v>0.46</v>
+        <v>0.4661654135338346</v>
       </c>
       <c r="L26">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="M26">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1254,7 +1251,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>54</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1262,13 +1259,13 @@
         <v>34</v>
       </c>
       <c r="K27">
-        <v>0.4511278195488722</v>
+        <v>0.4578313253012048</v>
       </c>
       <c r="L27">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="M27">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1280,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>73</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1288,13 +1285,13 @@
         <v>35</v>
       </c>
       <c r="K28">
-        <v>0.4461538461538462</v>
+        <v>0.4078947368421053</v>
       </c>
       <c r="L28">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M28">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1306,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1340,13 +1337,13 @@
         <v>37</v>
       </c>
       <c r="K30">
-        <v>0.3424124513618677</v>
+        <v>0.3458646616541353</v>
       </c>
       <c r="L30">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="M30">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1358,7 +1355,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>169</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1366,13 +1363,13 @@
         <v>38</v>
       </c>
       <c r="K31">
-        <v>0.3383458646616541</v>
+        <v>0.3455882352941176</v>
       </c>
       <c r="L31">
-        <v>45</v>
+        <v>141</v>
       </c>
       <c r="M31">
-        <v>45</v>
+        <v>141</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1384,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>88</v>
+        <v>267</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1392,13 +1389,13 @@
         <v>39</v>
       </c>
       <c r="K32">
-        <v>0.3357843137254902</v>
+        <v>0.3346303501945525</v>
       </c>
       <c r="L32">
-        <v>137</v>
+        <v>86</v>
       </c>
       <c r="M32">
-        <v>137</v>
+        <v>86</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1410,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>271</v>
+        <v>171</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1418,13 +1415,13 @@
         <v>40</v>
       </c>
       <c r="K33">
-        <v>0.2733812949640288</v>
+        <v>0.3</v>
       </c>
       <c r="L33">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="M33">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1436,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>101</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1444,13 +1441,13 @@
         <v>41</v>
       </c>
       <c r="K34">
-        <v>0.263013698630137</v>
+        <v>0.2780821917808219</v>
       </c>
       <c r="L34">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="M34">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1462,7 +1459,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>538</v>
+        <v>527</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1470,13 +1467,13 @@
         <v>42</v>
       </c>
       <c r="K35">
-        <v>0.2344497607655502</v>
+        <v>0.2733812949640288</v>
       </c>
       <c r="L35">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="M35">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1488,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>160</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1496,13 +1493,13 @@
         <v>43</v>
       </c>
       <c r="K36">
-        <v>0.2163616792249731</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="L36">
-        <v>201</v>
+        <v>55</v>
       </c>
       <c r="M36">
-        <v>201</v>
+        <v>55</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1514,7 +1511,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>728</v>
+        <v>154</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1522,13 +1519,13 @@
         <v>44</v>
       </c>
       <c r="K37">
-        <v>0.1724137931034483</v>
+        <v>0.2282023681377826</v>
       </c>
       <c r="L37">
-        <v>55</v>
+        <v>212</v>
       </c>
       <c r="M37">
-        <v>55</v>
+        <v>212</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1540,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>264</v>
+        <v>717</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1548,13 +1545,13 @@
         <v>45</v>
       </c>
       <c r="K38">
-        <v>0.1713554987212276</v>
+        <v>0.1849529780564263</v>
       </c>
       <c r="L38">
-        <v>134</v>
+        <v>59</v>
       </c>
       <c r="M38">
-        <v>134</v>
+        <v>59</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1566,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>648</v>
+        <v>260</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1574,13 +1571,13 @@
         <v>46</v>
       </c>
       <c r="K39">
-        <v>0.1629139072847682</v>
+        <v>0.1726342710997442</v>
       </c>
       <c r="L39">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="M39">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1592,7 +1589,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>632</v>
+        <v>647</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1600,13 +1597,13 @@
         <v>47</v>
       </c>
       <c r="K40">
-        <v>0.1260504201680672</v>
+        <v>0.1708609271523179</v>
       </c>
       <c r="L40">
-        <v>30</v>
+        <v>129</v>
       </c>
       <c r="M40">
-        <v>30</v>
+        <v>129</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1618,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>208</v>
+        <v>626</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1626,7 +1623,7 @@
         <v>48</v>
       </c>
       <c r="K41">
-        <v>0.1181818181818182</v>
+        <v>0.1401617250673854</v>
       </c>
       <c r="L41">
         <v>52</v>
@@ -1644,7 +1641,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>388</v>
+        <v>319</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1652,13 +1649,13 @@
         <v>49</v>
       </c>
       <c r="K42">
-        <v>0.1168384879725086</v>
+        <v>0.1305841924398626</v>
       </c>
       <c r="L42">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M42">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1670,7 +1667,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -1678,13 +1675,13 @@
         <v>50</v>
       </c>
       <c r="K43">
-        <v>0.1143552311435523</v>
+        <v>0.1</v>
       </c>
       <c r="L43">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M43">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1696,7 +1693,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>364</v>
+        <v>396</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -1704,25 +1701,25 @@
         <v>51</v>
       </c>
       <c r="K44">
-        <v>0.1054054054054054</v>
+        <v>0.09975669099756691</v>
       </c>
       <c r="L44">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M44">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N44">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O44">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44">
-        <v>331</v>
+        <v>370</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -1730,13 +1727,13 @@
         <v>52</v>
       </c>
       <c r="K45">
-        <v>0.07875894988066826</v>
+        <v>0.09210526315789473</v>
       </c>
       <c r="L45">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="M45">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1748,7 +1745,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>386</v>
+        <v>414</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -1756,13 +1753,13 @@
         <v>53</v>
       </c>
       <c r="K46">
-        <v>0.06599713055954089</v>
+        <v>0.05788982259570495</v>
       </c>
       <c r="L46">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="M46">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="N46">
         <v>0.98</v>
@@ -1774,7 +1771,7 @@
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>651</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -1782,25 +1779,25 @@
         <v>54</v>
       </c>
       <c r="K47">
-        <v>0.06578947368421052</v>
+        <v>0.05164992826398852</v>
       </c>
       <c r="L47">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="M47">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="N47">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O47">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q47">
-        <v>426</v>
+        <v>661</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -1808,51 +1805,25 @@
         <v>55</v>
       </c>
       <c r="K48">
-        <v>0.04855275443510738</v>
+        <v>0.03032928942807626</v>
       </c>
       <c r="L48">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="M48">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="N48">
-        <v>0.98</v>
+        <v>0.92</v>
       </c>
       <c r="O48">
-        <v>0.02000000000000002</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P48" t="b">
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="49" spans="10:17">
-      <c r="J49" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K49">
-        <v>0.0268630849220104</v>
-      </c>
-      <c r="L49">
-        <v>31</v>
-      </c>
-      <c r="M49">
-        <v>34</v>
-      </c>
-      <c r="N49">
-        <v>0.91</v>
-      </c>
-      <c r="O49">
-        <v>0.08999999999999997</v>
-      </c>
-      <c r="P49" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q49">
-        <v>1123</v>
+        <v>1119</v>
       </c>
     </row>
   </sheetData>
